--- a/biology/Botanique/Alcea/Alcea.xlsx
+++ b/biology/Botanique/Alcea/Alcea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alcea est un genre de plantes de la famille des Malvaceae. C'est le genre de la Rose trémière (Alcea rosea), une Alcée dont la haute hampe florale s'invite parfois spontanément dans les jardins ou le long des trottoirs.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom botanique du genre (Alcea rosea est l'espèce la plus commune) désignait en latin et en grec (alkea, « mauve », dérivé d'althein, « guérir ») une Malvacée mal identifiée aux  propriétés médicinales, et désigne aujourd'hui les Alcées[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom botanique du genre (Alcea rosea est l'espèce la plus commune) désignait en latin et en grec (alkea, « mauve », dérivé d'althein, « guérir ») une Malvacée mal identifiée aux  propriétés médicinales, et désigne aujourd'hui les Alcées.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GRIN            (18 novembre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (18 novembre 2015) :
 Alcea acaulis (Cav.) Alef.
 Alcea biennis Winterl
 Alcea calvertii (Boiss.) Boiss.
@@ -568,7 +584,7 @@
 			Alcea rugosa
 			Alcea setosa
 			Alcea striata
-Selon Tropicos                                           (18 novembre 2015)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (18 novembre 2015) (Attention liste brute contenant possiblement des synonymes) :
 Alcea abchazica Iljin
 Alcea acaulis (Cav.) Alef.
 Alcea aegyptiaca Boiss.
